--- a/user.xlsx
+++ b/user.xlsx
@@ -59,7 +59,7 @@
     <t>13752560882</t>
   </si>
   <si>
-    <t>111</t>
+    <t>123</t>
   </si>
   <si>
     <t>2020-06-10 11:41:00</t>
@@ -185,9 +185,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -195,6 +192,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,7 +480,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -489,107 +489,107 @@
     <col min="3" max="3" customWidth="true" width="19.375" collapsed="false"/>
     <col min="4" max="4" customWidth="true" width="11.5" collapsed="false"/>
     <col min="5" max="5" customWidth="true" width="11.875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="13.875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="25.125" collapsed="false"/>
     <col min="7" max="7" customWidth="true" width="28.75" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4">
       <c r="A4"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5">
       <c r="A5"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6">
       <c r="A6"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
